--- a/EvaluationData/Q6.1.xlsx
+++ b/EvaluationData/Q6.1.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778BE58-762B-4F47-BB6F-C18F39DDA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775DC46-1AB0-4947-B0E0-47BD97F93722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Uncertainty Type</t>
-  </si>
-  <si>
     <t>Assignable Element Type</t>
   </si>
   <si>
@@ -49,9 +55,6 @@
   </si>
   <si>
     <t>Recall</t>
-  </si>
-  <si>
-    <t>Additional Explannation for Semantic Accuracy</t>
   </si>
   <si>
     <t>Why no further impact?</t>
@@ -85,12 +88,241 @@
   </si>
   <si>
     <t>False Negative</t>
+  </si>
+  <si>
+    <t>S1_1</t>
+  </si>
+  <si>
+    <t>CoronaWarnAppServer_HWResource(_zudcIFwKEeyZguoeZPFbfQ): ResourceContainer</t>
+  </si>
+  <si>
+    <t>Assembly_CoronaWarnAppServer &lt;CoronaWarnAppServer&gt;(_FeoIoFs7EeyZguoeZPFbfQ): AssemblyContext</t>
+  </si>
+  <si>
+    <t>Connector Assembly_CoronaWarnAppServer &lt;CoronaWarnAppServer&gt; -&gt; Assembly_ContentDeliveryNetwork &lt;ContentDeliveryNetwork&gt;(_jeVdoFs7EeyZguoeZPFbfQ): AssemblyConnector</t>
+  </si>
+  <si>
+    <t>Connector Assembly_CoronaWarnAppServer &lt;CoronaWarnAppServer&gt; -&gt; Assembly_VerificationServer &lt;VerificationServer&gt;(_LseyAFs7EeyZguoeZPFbfQ): AssemblyConnector</t>
+  </si>
+  <si>
+    <t>Connector Assembly_CoronaWarnApp &lt;CoronaWarnApp&gt; -&gt; Assembly_CoronaWarnAppServer &lt;CoronaWarnAppServer&gt;(_EpCQYGG9EeyYW-3yWDgzyw): AssemblyConnector</t>
+  </si>
+  <si>
+    <t>S1_2</t>
+  </si>
+  <si>
+    <t>Provided_ISubmissionService(_1PQJQFs1EeyjS5hmr-doJA): OperationProvidedRole</t>
+  </si>
+  <si>
+    <t>S1_3</t>
+  </si>
+  <si>
+    <t>CoronaWarnAppServerDB(_7oWWkFq3EeyjS5hmr-doJA): BasicComponent</t>
+  </si>
+  <si>
+    <t>ContentDeliveryNetwork(_WMc6UFwLEeyZguoeZPFbfQ): ResourceContainer</t>
+  </si>
+  <si>
+    <t>S1_4</t>
+  </si>
+  <si>
+    <t>S1_5</t>
+  </si>
+  <si>
+    <t>S1_6</t>
+  </si>
+  <si>
+    <t>VerificationServer_HWResource(_ymr7wFwKEeyZguoeZPFbfQ): ResourceContainer</t>
+  </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Where is data persisted?</t>
+  </si>
+  <si>
+    <t>Hardware Resource</t>
+  </si>
+  <si>
+    <t>Communcation Component, Component Instance</t>
+  </si>
+  <si>
+    <t>What is the structure of the interface?</t>
+  </si>
+  <si>
+    <t>Component Interface Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t>What data is persisted?</t>
+  </si>
+  <si>
+    <t>Basic Component Type</t>
+  </si>
+  <si>
+    <t>How is communicated?</t>
+  </si>
+  <si>
+    <t>Communication Component</t>
+  </si>
+  <si>
+    <t>Hardware Resouce</t>
+  </si>
+  <si>
+    <t>Accuracy (per Scenario)</t>
+  </si>
+  <si>
+    <t>Accuracy (context information included)</t>
+  </si>
+  <si>
+    <t>Uncertainty Type ID</t>
+  </si>
+  <si>
+    <t>Uncertainty Type Name</t>
+  </si>
+  <si>
+    <t>CU3</t>
+  </si>
+  <si>
+    <t>CU8</t>
+  </si>
+  <si>
+    <t>CU2</t>
+  </si>
+  <si>
+    <t>CU12</t>
+  </si>
+  <si>
+    <t>CU25</t>
+  </si>
+  <si>
+    <t>Is communciation intercepted?</t>
+  </si>
+  <si>
+    <t>Additional Explannation for Accuracy including the context information</t>
+  </si>
+  <si>
+    <t>Direct impact -&gt; trivial</t>
+  </si>
+  <si>
+    <t>Based on manual structural propagation via CWA Architecture (cwa.allocation, cwa.repository,…)
+INCLUDING context information</t>
+  </si>
+  <si>
+    <t>Not knowing location has Impact: user related data persisted here -&gt; EU law says impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not knowing location has no impact: Data (=Aggegrated keys) are publicly accessible, encryption does not matter </t>
+  </si>
+  <si>
+    <t>Not knowing location has impact: Encryption necessary because confidential data is transmitted but encryption is uncertain (See S1_6), if location and encryption remains uncertaint -&gt; Impact on confidentiality</t>
+  </si>
+  <si>
+    <t>Not knowing location has no impact: Diagnosis Keys uploaded here which is confidential data, but this communication is encrypted!</t>
+  </si>
+  <si>
+    <t>Not knowing what data is persisted has impact: Deployment location is uncertaint (See S1_1) -&gt; If confidential data is persisted, EU Regulation see confidentiality breach</t>
+  </si>
+  <si>
+    <t>Not knowing communication type has no impact: Location and Kind of data persisted on CDN is known (only public data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not knowing communication type has impact: Location and data is still uncertaint </t>
+  </si>
+  <si>
+    <t>Not knowing communication type has impact: Location is certain but we know that confidential data is  persisted here</t>
+  </si>
+  <si>
+    <t>S2_1</t>
+  </si>
+  <si>
+    <t>TestResultServer_HWResource(_v-rZAFqcEeyjS5hmr-doJA): ResourceContainer</t>
+  </si>
+  <si>
+    <t>Assembly_TestResultServer &lt;TestResultServer&gt;(_skotEFs2EeyZguoeZPFbfQ): AssemblyContext</t>
+  </si>
+  <si>
+    <t>Connector Assembly_VerificationServer &lt;VerificationServer&gt; -&gt; Assembly_TestResultServer &lt;TestResultServer&gt;(__i6_MFs6EeyZguoeZPFbfQ): AssemblyConnector</t>
+  </si>
+  <si>
+    <t>PortalServer_HWResource(_-_crsFqrEeyjS5hmr-doJA): ResourceContainer</t>
+  </si>
+  <si>
+    <t>Connector Assembly_Portal &lt;Portal&gt; -&gt; Assembly_VerificationServer &lt;VerificationServer&gt;(_7cofQFs6EeyZguoeZPFbfQ): AssemblyConnector</t>
+  </si>
+  <si>
+    <t>Assembly_Portal &lt;Portal&gt;(_efuEAFs6EeyZguoeZPFbfQ): AssemblyContext</t>
+  </si>
+  <si>
+    <t>S2_2</t>
+  </si>
+  <si>
+    <t>TestResultDB(_JnEbIFsvEeyjS5hmr-doJA): BasicComponent</t>
+  </si>
+  <si>
+    <t>S2_3</t>
+  </si>
+  <si>
+    <t>S2_4</t>
+  </si>
+  <si>
+    <t>S2_5</t>
+  </si>
+  <si>
+    <t>S2_6</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Where is deployed?</t>
+  </si>
+  <si>
+    <t>CU20</t>
+  </si>
+  <si>
+    <t>How long is data being stored?</t>
+  </si>
+  <si>
+    <t>CU10</t>
+  </si>
+  <si>
+    <t>Is the data to be persisted confidential?</t>
+  </si>
+  <si>
+    <t>CU24</t>
+  </si>
+  <si>
+    <t>What kind of storage is used?</t>
+  </si>
+  <si>
+    <t>CU15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not knowing deployment location has no impact: Communication is encrypted! </t>
+  </si>
+  <si>
+    <t>Not knowing deployment location has impact: We do not know is user related data is persisted (See S2_4)</t>
+  </si>
+  <si>
+    <t>Not knowing deployment location has impact: We know that user related data is processed here (Test results)</t>
+  </si>
+  <si>
+    <t>Not knowing how long data is persisted has impact: We do not know if user related data is persisted (See S2_4)</t>
+  </si>
+  <si>
+    <t>Not knowing deployment location has no impact: Only anonymised keys are stored here wich are made publicly available cia CDN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +384,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,14 +409,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -200,6 +438,45 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -480,120 +757,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N19"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="158.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20" style="15" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="173" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="255.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="24">
+        <f>12/(12+3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24">
+        <f>9/(9+6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="24">
+        <f>15/(15+0)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H63" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
+      <c r="H64" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="11" t="s">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="53">
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="I19:I33"/>
+    <mergeCell ref="J19:J33"/>
+    <mergeCell ref="L19:L33"/>
+    <mergeCell ref="M19:M33"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="L3:L17"/>
+    <mergeCell ref="M3:M17"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I3:I17"/>
+    <mergeCell ref="J3:J17"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>